--- a/data/metaboliteDataHerbarium1-30.xlsx
+++ b/data/metaboliteDataHerbarium1-30.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scutellaria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Documents\scutellariaMetabolites\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120D0649-81DB-4260-9752-B7DBE08A2BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19845" windowHeight="12270"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Peak Areas" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t>injection</t>
   </si>
@@ -59,12 +60,6 @@
     <t>apigeninG</t>
   </si>
   <si>
-    <t>scutalarin</t>
-  </si>
-  <si>
-    <t>scutalarein</t>
-  </si>
-  <si>
     <t>chrysinG</t>
   </si>
   <si>
@@ -149,9 +144,6 @@
     <t>28-1</t>
   </si>
   <si>
-    <t>n.a.</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -261,12 +253,18 @@
   </si>
   <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>scutellarin</t>
+  </si>
+  <si>
+    <t>scutellarein</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -578,11 +576,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,524 +620,524 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" t="s">
-        <v>41</v>
-      </c>
-      <c r="P11" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>7.5200000000000003E-2</v>
@@ -1165,31 +1163,31 @@
       <c r="I12">
         <v>0.23250000000000001</v>
       </c>
-      <c r="J12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" t="s">
-        <v>41</v>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>0.255</v>
@@ -1215,31 +1213,31 @@
       <c r="I13">
         <v>1.1812</v>
       </c>
-      <c r="J13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" t="s">
-        <v>41</v>
-      </c>
-      <c r="N13" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" t="s">
-        <v>41</v>
-      </c>
-      <c r="P13" t="s">
-        <v>41</v>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>0.57989999999999997</v>
@@ -1265,31 +1263,31 @@
       <c r="I14">
         <v>2.5085999999999999</v>
       </c>
-      <c r="J14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P14" t="s">
-        <v>41</v>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>1.7706999999999999</v>
@@ -1315,31 +1313,31 @@
       <c r="I15">
         <v>13.15</v>
       </c>
-      <c r="J15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N15" t="s">
-        <v>41</v>
-      </c>
-      <c r="O15" t="s">
-        <v>41</v>
-      </c>
-      <c r="P15" t="s">
-        <v>41</v>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>3.2951999999999999</v>
@@ -1365,31 +1363,31 @@
       <c r="I16">
         <v>25.092600000000001</v>
       </c>
-      <c r="J16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" t="s">
-        <v>41</v>
-      </c>
-      <c r="N16" t="s">
-        <v>41</v>
-      </c>
-      <c r="O16" t="s">
-        <v>41</v>
-      </c>
-      <c r="P16" t="s">
-        <v>41</v>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>6.9671000000000003</v>
@@ -1415,31 +1413,31 @@
       <c r="I17">
         <v>55.883099999999999</v>
       </c>
-      <c r="J17" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" t="s">
-        <v>41</v>
-      </c>
-      <c r="M17" t="s">
-        <v>41</v>
-      </c>
-      <c r="N17" t="s">
-        <v>41</v>
-      </c>
-      <c r="O17" t="s">
-        <v>41</v>
-      </c>
-      <c r="P17" t="s">
-        <v>41</v>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>13.687799999999999</v>
@@ -1465,31 +1463,31 @@
       <c r="I18">
         <v>107.339</v>
       </c>
-      <c r="J18" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" t="s">
-        <v>41</v>
-      </c>
-      <c r="N18" t="s">
-        <v>41</v>
-      </c>
-      <c r="O18" t="s">
-        <v>41</v>
-      </c>
-      <c r="P18" t="s">
-        <v>41</v>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>32.595500000000001</v>
@@ -1515,105 +1513,105 @@
       <c r="I19">
         <v>181.8192</v>
       </c>
-      <c r="J19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M19" t="s">
-        <v>41</v>
-      </c>
-      <c r="N19" t="s">
-        <v>41</v>
-      </c>
-      <c r="O19" t="s">
-        <v>41</v>
-      </c>
-      <c r="P19" t="s">
-        <v>41</v>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
       </c>
       <c r="G20">
         <v>3.78E-2</v>
       </c>
-      <c r="H20" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20" t="s">
-        <v>41</v>
-      </c>
-      <c r="M20" t="s">
-        <v>41</v>
-      </c>
-      <c r="N20" t="s">
-        <v>41</v>
-      </c>
-      <c r="O20" t="s">
-        <v>41</v>
-      </c>
-      <c r="P20" t="s">
-        <v>41</v>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
       </c>
       <c r="J21">
         <v>2.81E-2</v>
@@ -1639,31 +1637,31 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0.1426</v>
@@ -1689,31 +1687,31 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" t="s">
-        <v>41</v>
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0.2908</v>
@@ -1739,31 +1737,31 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
       </c>
       <c r="J24">
         <v>1.2982</v>
@@ -1789,31 +1787,31 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" t="s">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
       </c>
       <c r="J25">
         <v>2.5971000000000002</v>
@@ -1839,31 +1837,31 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
       </c>
       <c r="J26">
         <v>6.6319999999999997</v>
@@ -1889,31 +1887,31 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
       </c>
       <c r="J27">
         <v>11.5853</v>
@@ -1939,31 +1937,31 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I28" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
       </c>
       <c r="J28">
         <v>21.3187</v>
@@ -1989,57 +1987,57 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-      <c r="I29" t="s">
-        <v>41</v>
-      </c>
-      <c r="J29" t="s">
-        <v>41</v>
-      </c>
-      <c r="K29" t="s">
-        <v>41</v>
-      </c>
-      <c r="L29" t="s">
-        <v>41</v>
-      </c>
-      <c r="M29" t="s">
-        <v>41</v>
-      </c>
-      <c r="N29" t="s">
-        <v>41</v>
-      </c>
-      <c r="O29" t="s">
-        <v>41</v>
-      </c>
-      <c r="P29" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>2.1267999999999998</v>
@@ -2089,110 +2087,110 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0.2195</v>
       </c>
-      <c r="G31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" t="s">
-        <v>41</v>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0.38200000000000001</v>
       </c>
-      <c r="J31" t="s">
-        <v>41</v>
-      </c>
-      <c r="K31" t="s">
-        <v>41</v>
-      </c>
-      <c r="L31" t="s">
-        <v>41</v>
-      </c>
-      <c r="M31" t="s">
-        <v>41</v>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
       </c>
       <c r="N31">
         <v>1.7546999999999999</v>
       </c>
-      <c r="O31" t="s">
-        <v>41</v>
-      </c>
-      <c r="P31" t="s">
-        <v>41</v>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
       </c>
       <c r="C32">
         <v>16.828099999999999</v>
       </c>
-      <c r="D32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" t="s">
-        <v>41</v>
-      </c>
-      <c r="I32" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32" t="s">
-        <v>41</v>
-      </c>
-      <c r="K32" t="s">
-        <v>41</v>
-      </c>
-      <c r="L32" t="s">
-        <v>41</v>
-      </c>
-      <c r="M32" t="s">
-        <v>41</v>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
       </c>
       <c r="N32">
         <v>5.6161000000000003</v>
       </c>
-      <c r="O32" t="s">
-        <v>41</v>
-      </c>
-      <c r="P32" t="s">
-        <v>41</v>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" t="s">
         <v>41</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
       </c>
       <c r="C33">
         <v>11.2597</v>
@@ -2203,52 +2201,52 @@
       <c r="E33">
         <v>8.9573999999999998</v>
       </c>
-      <c r="F33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" t="s">
-        <v>41</v>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
       </c>
       <c r="H33">
         <v>1.5444</v>
       </c>
-      <c r="I33" t="s">
-        <v>41</v>
-      </c>
-      <c r="J33" t="s">
-        <v>41</v>
-      </c>
-      <c r="K33" t="s">
-        <v>41</v>
-      </c>
-      <c r="L33" t="s">
-        <v>41</v>
-      </c>
-      <c r="M33" t="s">
-        <v>41</v>
-      </c>
-      <c r="N33" t="s">
-        <v>41</v>
-      </c>
-      <c r="O33" t="s">
-        <v>41</v>
-      </c>
-      <c r="P33" t="s">
-        <v>41</v>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>2.8033999999999999</v>
       </c>
-      <c r="C34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" t="s">
-        <v>41</v>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
       </c>
       <c r="E34">
         <v>2.3794</v>
@@ -2256,43 +2254,43 @@
       <c r="F34">
         <v>0.53259999999999996</v>
       </c>
-      <c r="G34" t="s">
-        <v>41</v>
+      <c r="G34">
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0.83430000000000004</v>
       </c>
-      <c r="I34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J34" t="s">
-        <v>41</v>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
       </c>
       <c r="K34">
         <v>3.8813</v>
       </c>
-      <c r="L34" t="s">
-        <v>41</v>
-      </c>
-      <c r="M34" t="s">
-        <v>41</v>
-      </c>
-      <c r="N34" t="s">
-        <v>41</v>
-      </c>
-      <c r="O34" t="s">
-        <v>41</v>
-      </c>
-      <c r="P34" t="s">
-        <v>41</v>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
       </c>
       <c r="C35">
         <v>74.296499999999995</v>
@@ -2303,8 +2301,8 @@
       <c r="E35">
         <v>1.4804999999999999</v>
       </c>
-      <c r="F35" t="s">
-        <v>41</v>
+      <c r="F35">
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0.89390000000000003</v>
@@ -2315,31 +2313,31 @@
       <c r="I35">
         <v>0.41739999999999999</v>
       </c>
-      <c r="J35" t="s">
-        <v>41</v>
-      </c>
-      <c r="K35" t="s">
-        <v>41</v>
-      </c>
-      <c r="L35" t="s">
-        <v>41</v>
-      </c>
-      <c r="M35" t="s">
-        <v>41</v>
-      </c>
-      <c r="N35" t="s">
-        <v>41</v>
-      </c>
-      <c r="O35" t="s">
-        <v>41</v>
-      </c>
-      <c r="P35" t="s">
-        <v>41</v>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>5.6867000000000001</v>
@@ -2353,8 +2351,8 @@
       <c r="E36">
         <v>50.0214</v>
       </c>
-      <c r="F36" t="s">
-        <v>41</v>
+      <c r="F36">
+        <v>0</v>
       </c>
       <c r="G36">
         <v>1.2965</v>
@@ -2362,26 +2360,26 @@
       <c r="H36">
         <v>0.84940000000000004</v>
       </c>
-      <c r="I36" t="s">
-        <v>41</v>
-      </c>
-      <c r="J36" t="s">
-        <v>41</v>
-      </c>
-      <c r="K36" t="s">
-        <v>41</v>
-      </c>
-      <c r="L36" t="s">
-        <v>41</v>
-      </c>
-      <c r="M36" t="s">
-        <v>41</v>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
       </c>
       <c r="N36">
         <v>71.820899999999995</v>
       </c>
-      <c r="O36" t="s">
-        <v>41</v>
+      <c r="O36">
+        <v>0</v>
       </c>
       <c r="P36">
         <v>1.2598</v>
@@ -2389,7 +2387,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0.71809999999999996</v>
@@ -2403,8 +2401,8 @@
       <c r="E37">
         <v>34.082999999999998</v>
       </c>
-      <c r="F37" t="s">
-        <v>41</v>
+      <c r="F37">
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0.3105</v>
@@ -2415,58 +2413,58 @@
       <c r="I37">
         <v>0.1817</v>
       </c>
-      <c r="J37" t="s">
-        <v>41</v>
-      </c>
-      <c r="K37" t="s">
-        <v>41</v>
-      </c>
-      <c r="L37" t="s">
-        <v>41</v>
-      </c>
-      <c r="M37" t="s">
-        <v>41</v>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
       </c>
       <c r="N37">
         <v>4.3038999999999996</v>
       </c>
-      <c r="O37" t="s">
-        <v>41</v>
-      </c>
-      <c r="P37" t="s">
-        <v>41</v>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
       </c>
       <c r="D38">
         <v>1.1870000000000001</v>
       </c>
-      <c r="E38" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" t="s">
-        <v>41</v>
-      </c>
-      <c r="I38" t="s">
-        <v>41</v>
-      </c>
-      <c r="J38" t="s">
-        <v>41</v>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
       </c>
       <c r="K38">
         <v>16.171600000000002</v>
@@ -2474,49 +2472,49 @@
       <c r="L38">
         <v>5.7606000000000002</v>
       </c>
-      <c r="M38" t="s">
-        <v>41</v>
+      <c r="M38">
+        <v>0</v>
       </c>
       <c r="N38">
         <v>0.73419999999999996</v>
       </c>
-      <c r="O38" t="s">
-        <v>41</v>
-      </c>
-      <c r="P38" t="s">
-        <v>41</v>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
       </c>
       <c r="E39">
         <v>78.462599999999995</v>
       </c>
-      <c r="F39" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" t="s">
-        <v>41</v>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
       </c>
       <c r="H39">
         <v>2.6358999999999999</v>
       </c>
-      <c r="I39" t="s">
-        <v>41</v>
-      </c>
-      <c r="J39" t="s">
-        <v>41</v>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
       </c>
       <c r="K39">
         <v>2.0173999999999999</v>
@@ -2524,78 +2522,78 @@
       <c r="L39">
         <v>1.6477999999999999</v>
       </c>
-      <c r="M39" t="s">
-        <v>41</v>
+      <c r="M39">
+        <v>0</v>
       </c>
       <c r="N39">
         <v>24.134399999999999</v>
       </c>
-      <c r="O39" t="s">
-        <v>41</v>
-      </c>
-      <c r="P39" t="s">
-        <v>41</v>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
       </c>
       <c r="E40">
         <v>26.4361</v>
       </c>
-      <c r="F40" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" t="s">
-        <v>41</v>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
       </c>
       <c r="H40">
         <v>1.9345000000000001</v>
       </c>
-      <c r="I40" t="s">
-        <v>41</v>
-      </c>
-      <c r="J40" t="s">
-        <v>41</v>
-      </c>
-      <c r="K40" t="s">
-        <v>41</v>
-      </c>
-      <c r="L40" t="s">
-        <v>41</v>
-      </c>
-      <c r="M40" t="s">
-        <v>41</v>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
       </c>
       <c r="N40">
         <v>2.2389000000000001</v>
       </c>
-      <c r="O40" t="s">
-        <v>41</v>
-      </c>
-      <c r="P40" t="s">
-        <v>41</v>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B41">
         <v>2.0872000000000002</v>
       </c>
-      <c r="C41" t="s">
-        <v>41</v>
+      <c r="C41">
+        <v>0</v>
       </c>
       <c r="D41">
         <v>5.5251000000000001</v>
@@ -2639,49 +2637,49 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" t="s">
-        <v>41</v>
+        <v>49</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
       </c>
       <c r="E42">
         <v>18.900200000000002</v>
       </c>
-      <c r="F42" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42" t="s">
-        <v>41</v>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
       </c>
       <c r="H42">
         <v>5.5746000000000002</v>
       </c>
-      <c r="I42" t="s">
-        <v>41</v>
-      </c>
-      <c r="J42" t="s">
-        <v>41</v>
-      </c>
-      <c r="K42" t="s">
-        <v>41</v>
-      </c>
-      <c r="L42" t="s">
-        <v>41</v>
-      </c>
-      <c r="M42" t="s">
-        <v>41</v>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
       </c>
       <c r="N42">
         <v>2.0783999999999998</v>
       </c>
-      <c r="O42" t="s">
-        <v>41</v>
+      <c r="O42">
+        <v>0</v>
       </c>
       <c r="P42">
         <v>0.39500000000000002</v>
@@ -2689,34 +2687,34 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" t="s">
-        <v>41</v>
-      </c>
-      <c r="F43" t="s">
-        <v>41</v>
-      </c>
-      <c r="G43" t="s">
-        <v>41</v>
-      </c>
-      <c r="H43" t="s">
-        <v>41</v>
-      </c>
-      <c r="I43" t="s">
-        <v>41</v>
-      </c>
-      <c r="J43" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
       </c>
       <c r="K43">
         <v>3.0676999999999999</v>
@@ -2733,40 +2731,40 @@
       <c r="O43">
         <v>0.48870000000000002</v>
       </c>
-      <c r="P43" t="s">
-        <v>41</v>
+      <c r="P43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
       </c>
       <c r="E44">
         <v>1.1289</v>
       </c>
-      <c r="F44" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" t="s">
-        <v>41</v>
-      </c>
-      <c r="H44" t="s">
-        <v>41</v>
-      </c>
-      <c r="I44" t="s">
-        <v>41</v>
-      </c>
-      <c r="J44" t="s">
-        <v>41</v>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
       </c>
       <c r="K44">
         <v>1.2072000000000001</v>
@@ -2774,8 +2772,8 @@
       <c r="L44">
         <v>4.0766</v>
       </c>
-      <c r="M44" t="s">
-        <v>41</v>
+      <c r="M44">
+        <v>0</v>
       </c>
       <c r="N44">
         <v>1.4029</v>
@@ -2783,46 +2781,46 @@
       <c r="O44">
         <v>0.55879999999999996</v>
       </c>
-      <c r="P44" t="s">
-        <v>41</v>
+      <c r="P44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>1.9619</v>
       </c>
-      <c r="C45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" t="s">
-        <v>41</v>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
       </c>
       <c r="F45">
         <v>3.3435000000000001</v>
       </c>
-      <c r="G45" t="s">
-        <v>41</v>
-      </c>
-      <c r="H45" t="s">
-        <v>41</v>
-      </c>
-      <c r="I45" t="s">
-        <v>41</v>
-      </c>
-      <c r="J45" t="s">
-        <v>41</v>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
       </c>
       <c r="K45">
         <v>20.952100000000002</v>
       </c>
-      <c r="L45" t="s">
-        <v>41</v>
+      <c r="L45">
+        <v>0</v>
       </c>
       <c r="M45">
         <v>4.3093000000000004</v>
@@ -2830,8 +2828,8 @@
       <c r="N45">
         <v>6.8372999999999999</v>
       </c>
-      <c r="O45" t="s">
-        <v>41</v>
+      <c r="O45">
+        <v>0</v>
       </c>
       <c r="P45">
         <v>2.9742999999999999</v>
@@ -2839,34 +2837,34 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" t="s">
-        <v>41</v>
-      </c>
-      <c r="E46" t="s">
-        <v>41</v>
+        <v>53</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
       </c>
       <c r="F46">
         <v>2.6261000000000001</v>
       </c>
-      <c r="G46" t="s">
-        <v>41</v>
+      <c r="G46">
+        <v>0</v>
       </c>
       <c r="H46">
         <v>0.1835</v>
       </c>
-      <c r="I46" t="s">
-        <v>41</v>
-      </c>
-      <c r="J46" t="s">
-        <v>41</v>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
       </c>
       <c r="K46">
         <v>6.8230000000000004</v>
@@ -2883,16 +2881,16 @@
       <c r="O46">
         <v>0.125</v>
       </c>
-      <c r="P46" t="s">
-        <v>41</v>
+      <c r="P46">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
       </c>
       <c r="C47">
         <v>35.982700000000001</v>
@@ -2900,11 +2898,11 @@
       <c r="D47">
         <v>3.0706000000000002</v>
       </c>
-      <c r="E47" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" t="s">
-        <v>41</v>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0.65129999999999999</v>
@@ -2912,26 +2910,26 @@
       <c r="H47">
         <v>0.15210000000000001</v>
       </c>
-      <c r="I47" t="s">
-        <v>41</v>
-      </c>
-      <c r="J47" t="s">
-        <v>41</v>
-      </c>
-      <c r="K47" t="s">
-        <v>41</v>
-      </c>
-      <c r="L47" t="s">
-        <v>41</v>
-      </c>
-      <c r="M47" t="s">
-        <v>41</v>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
       </c>
       <c r="N47">
         <v>55.694000000000003</v>
       </c>
-      <c r="O47" t="s">
-        <v>41</v>
+      <c r="O47">
+        <v>0</v>
       </c>
       <c r="P47">
         <v>0.86060000000000003</v>
@@ -2939,10 +2937,10 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" t="s">
-        <v>41</v>
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
       </c>
       <c r="C48">
         <v>27.682700000000001</v>
@@ -2953,8 +2951,8 @@
       <c r="E48">
         <v>20.465</v>
       </c>
-      <c r="F48" t="s">
-        <v>41</v>
+      <c r="F48">
+        <v>0</v>
       </c>
       <c r="G48">
         <v>0.56769999999999998</v>
@@ -2962,26 +2960,26 @@
       <c r="H48">
         <v>0.62029999999999996</v>
       </c>
-      <c r="I48" t="s">
-        <v>41</v>
-      </c>
-      <c r="J48" t="s">
-        <v>41</v>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
       </c>
       <c r="K48">
         <v>0.64300000000000002</v>
       </c>
-      <c r="L48" t="s">
-        <v>41</v>
-      </c>
-      <c r="M48" t="s">
-        <v>41</v>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
       </c>
       <c r="N48">
         <v>29.450500000000002</v>
       </c>
-      <c r="O48" t="s">
-        <v>41</v>
+      <c r="O48">
+        <v>0</v>
       </c>
       <c r="P48">
         <v>0.68269999999999997</v>
@@ -2989,49 +2987,49 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" t="s">
-        <v>41</v>
+        <v>56</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
       </c>
       <c r="C49">
         <v>13.833399999999999</v>
       </c>
-      <c r="D49" t="s">
-        <v>41</v>
-      </c>
-      <c r="E49" t="s">
-        <v>41</v>
-      </c>
-      <c r="F49" t="s">
-        <v>41</v>
-      </c>
-      <c r="G49" t="s">
-        <v>41</v>
-      </c>
-      <c r="H49" t="s">
-        <v>41</v>
-      </c>
-      <c r="I49" t="s">
-        <v>41</v>
-      </c>
-      <c r="J49" t="s">
-        <v>41</v>
-      </c>
-      <c r="K49" t="s">
-        <v>41</v>
-      </c>
-      <c r="L49" t="s">
-        <v>41</v>
-      </c>
-      <c r="M49" t="s">
-        <v>41</v>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
       </c>
       <c r="N49">
         <v>7.7098000000000004</v>
       </c>
-      <c r="O49" t="s">
-        <v>41</v>
+      <c r="O49">
+        <v>0</v>
       </c>
       <c r="P49">
         <v>0.30259999999999998</v>
@@ -3039,10 +3037,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" t="s">
-        <v>41</v>
+        <v>57</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
       </c>
       <c r="C50">
         <v>9.2676999999999996</v>
@@ -3050,38 +3048,38 @@
       <c r="D50">
         <v>3.9906000000000001</v>
       </c>
-      <c r="E50" t="s">
-        <v>41</v>
-      </c>
-      <c r="F50" t="s">
-        <v>41</v>
-      </c>
-      <c r="G50" t="s">
-        <v>41</v>
-      </c>
-      <c r="H50" t="s">
-        <v>41</v>
-      </c>
-      <c r="I50" t="s">
-        <v>41</v>
-      </c>
-      <c r="J50" t="s">
-        <v>41</v>
-      </c>
-      <c r="K50" t="s">
-        <v>41</v>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
       </c>
       <c r="L50">
         <v>0.1273</v>
       </c>
-      <c r="M50" t="s">
-        <v>41</v>
+      <c r="M50">
+        <v>0</v>
       </c>
       <c r="N50">
         <v>4.9364999999999997</v>
       </c>
-      <c r="O50" t="s">
-        <v>41</v>
+      <c r="O50">
+        <v>0</v>
       </c>
       <c r="P50">
         <v>0.30420000000000003</v>
@@ -3089,7 +3087,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B51">
         <v>8.3598999999999997</v>
@@ -3103,8 +3101,8 @@
       <c r="E51">
         <v>23.4376</v>
       </c>
-      <c r="F51" t="s">
-        <v>41</v>
+      <c r="F51">
+        <v>0</v>
       </c>
       <c r="G51">
         <v>2.4594999999999998</v>
@@ -3112,26 +3110,26 @@
       <c r="H51">
         <v>0.50749999999999995</v>
       </c>
-      <c r="I51" t="s">
-        <v>41</v>
-      </c>
-      <c r="J51" t="s">
-        <v>41</v>
-      </c>
-      <c r="K51" t="s">
-        <v>41</v>
-      </c>
-      <c r="L51" t="s">
-        <v>41</v>
-      </c>
-      <c r="M51" t="s">
-        <v>41</v>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
       </c>
       <c r="N51">
         <v>16.003599999999999</v>
       </c>
-      <c r="O51" t="s">
-        <v>41</v>
+      <c r="O51">
+        <v>0</v>
       </c>
       <c r="P51">
         <v>0.48749999999999999</v>
@@ -3139,13 +3137,13 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B52">
         <v>2.0750999999999999</v>
       </c>
-      <c r="C52" t="s">
-        <v>41</v>
+      <c r="C52">
+        <v>0</v>
       </c>
       <c r="D52">
         <v>5.4935999999999998</v>
@@ -3189,10 +3187,10 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
       </c>
       <c r="C53">
         <v>51.695500000000003</v>
@@ -3203,8 +3201,8 @@
       <c r="E53">
         <v>21.534199999999998</v>
       </c>
-      <c r="F53" t="s">
-        <v>41</v>
+      <c r="F53">
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0.62839999999999996</v>
@@ -3212,61 +3210,61 @@
       <c r="H53">
         <v>0.45789999999999997</v>
       </c>
-      <c r="I53" t="s">
-        <v>41</v>
-      </c>
-      <c r="J53" t="s">
-        <v>41</v>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
       </c>
       <c r="K53">
         <v>1.218</v>
       </c>
-      <c r="L53" t="s">
-        <v>41</v>
-      </c>
-      <c r="M53" t="s">
-        <v>41</v>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
       </c>
       <c r="N53">
         <v>10.508800000000001</v>
       </c>
-      <c r="O53" t="s">
-        <v>41</v>
-      </c>
-      <c r="P53" t="s">
-        <v>41</v>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54" t="s">
-        <v>41</v>
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
       </c>
       <c r="D54">
         <v>0.183</v>
       </c>
-      <c r="E54" t="s">
-        <v>41</v>
+      <c r="E54">
+        <v>0</v>
       </c>
       <c r="F54">
         <v>0.72309999999999997</v>
       </c>
-      <c r="G54" t="s">
-        <v>41</v>
-      </c>
-      <c r="H54" t="s">
-        <v>41</v>
-      </c>
-      <c r="I54" t="s">
-        <v>41</v>
-      </c>
-      <c r="J54" t="s">
-        <v>41</v>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
       </c>
       <c r="K54">
         <v>1.9930000000000001</v>
@@ -3277,25 +3275,25 @@
       <c r="M54">
         <v>4.6585999999999999</v>
       </c>
-      <c r="N54" t="s">
-        <v>41</v>
-      </c>
-      <c r="O54" t="s">
-        <v>41</v>
-      </c>
-      <c r="P54" t="s">
-        <v>41</v>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
       </c>
       <c r="D55">
         <v>0.58409999999999995</v>
@@ -3303,20 +3301,20 @@
       <c r="E55">
         <v>0.99350000000000005</v>
       </c>
-      <c r="F55" t="s">
-        <v>41</v>
-      </c>
-      <c r="G55" t="s">
-        <v>41</v>
-      </c>
-      <c r="H55" t="s">
-        <v>41</v>
-      </c>
-      <c r="I55" t="s">
-        <v>41</v>
-      </c>
-      <c r="J55" t="s">
-        <v>41</v>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
       </c>
       <c r="K55">
         <v>1.2499</v>
@@ -3327,46 +3325,46 @@
       <c r="M55">
         <v>7.3597000000000001</v>
       </c>
-      <c r="N55" t="s">
-        <v>41</v>
+      <c r="N55">
+        <v>0</v>
       </c>
       <c r="O55">
         <v>0.9778</v>
       </c>
-      <c r="P55" t="s">
-        <v>41</v>
+      <c r="P55">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" t="s">
-        <v>41</v>
+        <v>60</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
       </c>
       <c r="E56">
         <v>0.13370000000000001</v>
       </c>
-      <c r="F56" t="s">
-        <v>41</v>
-      </c>
-      <c r="G56" t="s">
-        <v>41</v>
-      </c>
-      <c r="H56" t="s">
-        <v>41</v>
-      </c>
-      <c r="I56" t="s">
-        <v>41</v>
-      </c>
-      <c r="J56" t="s">
-        <v>41</v>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
       </c>
       <c r="K56">
         <v>1.0043</v>
@@ -3383,40 +3381,40 @@
       <c r="O56">
         <v>0.34</v>
       </c>
-      <c r="P56" t="s">
-        <v>41</v>
+      <c r="P56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" t="s">
-        <v>41</v>
-      </c>
-      <c r="D57" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
       </c>
       <c r="E57">
         <v>4.9021999999999997</v>
       </c>
-      <c r="F57" t="s">
-        <v>41</v>
-      </c>
-      <c r="G57" t="s">
-        <v>41</v>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
       </c>
       <c r="H57">
         <v>0.59970000000000001</v>
       </c>
-      <c r="I57" t="s">
-        <v>41</v>
-      </c>
-      <c r="J57" t="s">
-        <v>41</v>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
       </c>
       <c r="K57">
         <v>1.8528</v>
@@ -3433,40 +3431,40 @@
       <c r="O57">
         <v>0.81559999999999999</v>
       </c>
-      <c r="P57" t="s">
-        <v>41</v>
+      <c r="P57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" t="s">
-        <v>41</v>
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
       </c>
       <c r="D58">
         <v>1.3520000000000001</v>
       </c>
-      <c r="E58" t="s">
-        <v>41</v>
-      </c>
-      <c r="F58" t="s">
-        <v>41</v>
-      </c>
-      <c r="G58" t="s">
-        <v>41</v>
-      </c>
-      <c r="H58" t="s">
-        <v>41</v>
-      </c>
-      <c r="I58" t="s">
-        <v>41</v>
-      </c>
-      <c r="J58" t="s">
-        <v>41</v>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
       </c>
       <c r="K58">
         <v>3.7458</v>
@@ -3489,10 +3487,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B59" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
       </c>
       <c r="C59">
         <v>3.5474000000000001</v>
@@ -3500,23 +3498,23 @@
       <c r="D59">
         <v>2.5042</v>
       </c>
-      <c r="E59" t="s">
-        <v>41</v>
+      <c r="E59">
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0.12809999999999999</v>
       </c>
-      <c r="G59" t="s">
-        <v>41</v>
-      </c>
-      <c r="H59" t="s">
-        <v>41</v>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0.16239999999999999</v>
       </c>
-      <c r="J59" t="s">
-        <v>41</v>
+      <c r="J59">
+        <v>0</v>
       </c>
       <c r="K59">
         <v>0.54849999999999999</v>
@@ -3524,8 +3522,8 @@
       <c r="L59">
         <v>2.4295</v>
       </c>
-      <c r="M59" t="s">
-        <v>41</v>
+      <c r="M59">
+        <v>0</v>
       </c>
       <c r="N59">
         <v>1.3753</v>
@@ -3533,16 +3531,16 @@
       <c r="O59">
         <v>0.98839999999999995</v>
       </c>
-      <c r="P59" t="s">
-        <v>41</v>
+      <c r="P59">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" t="s">
-        <v>41</v>
+        <v>62</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
       </c>
       <c r="C60">
         <v>80.546700000000001</v>
@@ -3553,8 +3551,8 @@
       <c r="E60">
         <v>4.0162000000000004</v>
       </c>
-      <c r="F60" t="s">
-        <v>41</v>
+      <c r="F60">
+        <v>0</v>
       </c>
       <c r="G60">
         <v>1.9671000000000001</v>
@@ -3565,23 +3563,23 @@
       <c r="I60">
         <v>0.87290000000000001</v>
       </c>
-      <c r="J60" t="s">
-        <v>41</v>
-      </c>
-      <c r="K60" t="s">
-        <v>41</v>
-      </c>
-      <c r="L60" t="s">
-        <v>41</v>
-      </c>
-      <c r="M60" t="s">
-        <v>41</v>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
       </c>
       <c r="N60">
         <v>6.5694999999999997</v>
       </c>
-      <c r="O60" t="s">
-        <v>41</v>
+      <c r="O60">
+        <v>0</v>
       </c>
       <c r="P60">
         <v>0.3977</v>
@@ -3589,7 +3587,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B61">
         <v>0.37169999999999997</v>
@@ -3603,8 +3601,8 @@
       <c r="E61">
         <v>9.0714000000000006</v>
       </c>
-      <c r="F61" t="s">
-        <v>41</v>
+      <c r="F61">
+        <v>0</v>
       </c>
       <c r="G61">
         <v>0.28210000000000002</v>
@@ -3615,40 +3613,40 @@
       <c r="I61">
         <v>0.44109999999999999</v>
       </c>
-      <c r="J61" t="s">
-        <v>41</v>
+      <c r="J61">
+        <v>0</v>
       </c>
       <c r="K61">
         <v>0.47399999999999998</v>
       </c>
-      <c r="L61" t="s">
-        <v>41</v>
-      </c>
-      <c r="M61" t="s">
-        <v>41</v>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
       </c>
       <c r="N61">
         <v>0.36699999999999999</v>
       </c>
-      <c r="O61" t="s">
-        <v>41</v>
-      </c>
-      <c r="P61" t="s">
-        <v>41</v>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B62">
         <v>7.4290000000000003</v>
       </c>
-      <c r="C62" t="s">
-        <v>41</v>
-      </c>
-      <c r="D62" t="s">
-        <v>41</v>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
       </c>
       <c r="E62">
         <v>15.264699999999999</v>
@@ -3656,14 +3654,14 @@
       <c r="F62">
         <v>0.48230000000000001</v>
       </c>
-      <c r="G62" t="s">
-        <v>41</v>
+      <c r="G62">
+        <v>0</v>
       </c>
       <c r="H62">
         <v>6.9322999999999997</v>
       </c>
-      <c r="I62" t="s">
-        <v>41</v>
+      <c r="I62">
+        <v>0</v>
       </c>
       <c r="J62">
         <v>2.3283</v>
@@ -3671,11 +3669,11 @@
       <c r="K62">
         <v>6.0701999999999998</v>
       </c>
-      <c r="L62" t="s">
-        <v>41</v>
-      </c>
-      <c r="M62" t="s">
-        <v>41</v>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
       </c>
       <c r="N62">
         <v>0.1618</v>
@@ -3683,19 +3681,19 @@
       <c r="O62">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="P62" t="s">
-        <v>41</v>
+      <c r="P62">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B63">
         <v>1.8664000000000001</v>
       </c>
-      <c r="C63" t="s">
-        <v>41</v>
+      <c r="C63">
+        <v>0</v>
       </c>
       <c r="D63">
         <v>5.0903</v>
@@ -3739,13 +3737,13 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>10.680999999999999</v>
       </c>
-      <c r="C64" t="s">
-        <v>41</v>
+      <c r="C64">
+        <v>0</v>
       </c>
       <c r="D64">
         <v>0.47899999999999998</v>
@@ -3753,46 +3751,46 @@
       <c r="E64">
         <v>4.1287000000000003</v>
       </c>
-      <c r="F64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G64" t="s">
-        <v>41</v>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
       </c>
       <c r="H64">
         <v>0.44869999999999999</v>
       </c>
-      <c r="I64" t="s">
-        <v>41</v>
-      </c>
-      <c r="J64" t="s">
-        <v>41</v>
-      </c>
-      <c r="K64" t="s">
-        <v>41</v>
-      </c>
-      <c r="L64" t="s">
-        <v>41</v>
-      </c>
-      <c r="M64" t="s">
-        <v>41</v>
-      </c>
-      <c r="N64" t="s">
-        <v>41</v>
-      </c>
-      <c r="O64" t="s">
-        <v>41</v>
-      </c>
-      <c r="P64" t="s">
-        <v>41</v>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" t="s">
-        <v>41</v>
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
       </c>
       <c r="C65">
         <v>11.591100000000001</v>
@@ -3803,29 +3801,29 @@
       <c r="E65">
         <v>0.57350000000000001</v>
       </c>
-      <c r="F65" t="s">
-        <v>41</v>
+      <c r="F65">
+        <v>0</v>
       </c>
       <c r="G65">
         <v>3.6981999999999999</v>
       </c>
-      <c r="H65" t="s">
-        <v>41</v>
+      <c r="H65">
+        <v>0</v>
       </c>
       <c r="I65">
         <v>4.0975999999999999</v>
       </c>
-      <c r="J65" t="s">
-        <v>41</v>
-      </c>
-      <c r="K65" t="s">
-        <v>41</v>
-      </c>
-      <c r="L65" t="s">
-        <v>41</v>
-      </c>
-      <c r="M65" t="s">
-        <v>41</v>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
       </c>
       <c r="N65">
         <v>0.63200000000000001</v>
@@ -3839,210 +3837,210 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" t="s">
-        <v>41</v>
-      </c>
-      <c r="D66" t="s">
-        <v>41</v>
-      </c>
-      <c r="E66" t="s">
-        <v>41</v>
-      </c>
-      <c r="F66" t="s">
-        <v>41</v>
-      </c>
-      <c r="G66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H66" t="s">
-        <v>41</v>
-      </c>
-      <c r="I66" t="s">
-        <v>41</v>
-      </c>
-      <c r="J66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K66" t="s">
-        <v>41</v>
-      </c>
-      <c r="L66" t="s">
-        <v>41</v>
-      </c>
-      <c r="M66" t="s">
-        <v>41</v>
-      </c>
-      <c r="N66" t="s">
-        <v>41</v>
-      </c>
-      <c r="O66" t="s">
-        <v>41</v>
-      </c>
-      <c r="P66" t="s">
-        <v>41</v>
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" t="s">
-        <v>41</v>
-      </c>
-      <c r="C67" t="s">
-        <v>41</v>
-      </c>
-      <c r="D67" t="s">
-        <v>41</v>
-      </c>
-      <c r="E67" t="s">
-        <v>41</v>
-      </c>
-      <c r="F67" t="s">
-        <v>41</v>
-      </c>
-      <c r="G67" t="s">
-        <v>41</v>
-      </c>
-      <c r="H67" t="s">
-        <v>41</v>
-      </c>
-      <c r="I67" t="s">
-        <v>41</v>
-      </c>
-      <c r="J67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K67" t="s">
-        <v>41</v>
-      </c>
-      <c r="L67" t="s">
-        <v>41</v>
-      </c>
-      <c r="M67" t="s">
-        <v>41</v>
-      </c>
-      <c r="N67" t="s">
-        <v>41</v>
-      </c>
-      <c r="O67" t="s">
-        <v>41</v>
-      </c>
-      <c r="P67" t="s">
-        <v>41</v>
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" t="s">
-        <v>41</v>
-      </c>
-      <c r="D68" t="s">
-        <v>41</v>
-      </c>
-      <c r="E68" t="s">
-        <v>41</v>
-      </c>
-      <c r="F68" t="s">
-        <v>41</v>
-      </c>
-      <c r="G68" t="s">
-        <v>41</v>
-      </c>
-      <c r="H68" t="s">
-        <v>41</v>
-      </c>
-      <c r="I68" t="s">
-        <v>41</v>
-      </c>
-      <c r="J68" t="s">
-        <v>41</v>
-      </c>
-      <c r="K68" t="s">
-        <v>41</v>
-      </c>
-      <c r="L68" t="s">
-        <v>41</v>
-      </c>
-      <c r="M68" t="s">
-        <v>41</v>
-      </c>
-      <c r="N68" t="s">
-        <v>41</v>
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
       </c>
       <c r="O68">
         <v>4.02E-2</v>
       </c>
-      <c r="P68" t="s">
-        <v>41</v>
+      <c r="P68">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" t="s">
-        <v>41</v>
-      </c>
-      <c r="D69" t="s">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
       </c>
       <c r="E69">
         <v>0.52649999999999997</v>
       </c>
-      <c r="F69" t="s">
-        <v>41</v>
-      </c>
-      <c r="G69" t="s">
-        <v>41</v>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
       </c>
       <c r="H69">
         <v>0.68049999999999999</v>
       </c>
-      <c r="I69" t="s">
-        <v>41</v>
-      </c>
-      <c r="J69" t="s">
-        <v>41</v>
-      </c>
-      <c r="K69" t="s">
-        <v>41</v>
-      </c>
-      <c r="L69" t="s">
-        <v>41</v>
-      </c>
-      <c r="M69" t="s">
-        <v>41</v>
-      </c>
-      <c r="N69" t="s">
-        <v>41</v>
-      </c>
-      <c r="O69" t="s">
-        <v>41</v>
-      </c>
-      <c r="P69" t="s">
-        <v>41</v>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" t="s">
-        <v>41</v>
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
       </c>
       <c r="C70">
         <v>103.65860000000001</v>
@@ -4053,8 +4051,8 @@
       <c r="E70">
         <v>117.6036</v>
       </c>
-      <c r="F70" t="s">
-        <v>41</v>
+      <c r="F70">
+        <v>0</v>
       </c>
       <c r="G70">
         <v>6.9646999999999997</v>
@@ -4065,23 +4063,23 @@
       <c r="I70">
         <v>8.0319000000000003</v>
       </c>
-      <c r="J70" t="s">
-        <v>41</v>
-      </c>
-      <c r="K70" t="s">
-        <v>41</v>
-      </c>
-      <c r="L70" t="s">
-        <v>41</v>
-      </c>
-      <c r="M70" t="s">
-        <v>41</v>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
       </c>
       <c r="N70">
         <v>2.0735000000000001</v>
       </c>
-      <c r="O70" t="s">
-        <v>41</v>
+      <c r="O70">
+        <v>0</v>
       </c>
       <c r="P70">
         <v>1.5508</v>
@@ -4089,7 +4087,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>0.84440000000000004</v>
@@ -4100,8 +4098,8 @@
       <c r="D71">
         <v>8.8229000000000006</v>
       </c>
-      <c r="E71" t="s">
-        <v>41</v>
+      <c r="E71">
+        <v>0</v>
       </c>
       <c r="F71">
         <v>0.49220000000000003</v>
@@ -4115,17 +4113,17 @@
       <c r="I71">
         <v>1.3341000000000001</v>
       </c>
-      <c r="J71" t="s">
-        <v>41</v>
-      </c>
-      <c r="K71" t="s">
-        <v>41</v>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
       </c>
       <c r="L71">
         <v>2.8942999999999999</v>
       </c>
-      <c r="M71" t="s">
-        <v>41</v>
+      <c r="M71">
+        <v>0</v>
       </c>
       <c r="N71">
         <v>10.5852</v>
@@ -4139,10 +4137,10 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B72" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
       </c>
       <c r="C72">
         <v>17.964300000000001</v>
@@ -4165,17 +4163,17 @@
       <c r="I72">
         <v>1.7529999999999999</v>
       </c>
-      <c r="J72" t="s">
-        <v>41</v>
+      <c r="J72">
+        <v>0</v>
       </c>
       <c r="K72">
         <v>0.54010000000000002</v>
       </c>
-      <c r="L72" t="s">
-        <v>41</v>
-      </c>
-      <c r="M72" t="s">
-        <v>41</v>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
       </c>
       <c r="N72">
         <v>7.2961</v>
@@ -4189,34 +4187,34 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>13.851800000000001</v>
       </c>
-      <c r="C73" t="s">
-        <v>41</v>
-      </c>
-      <c r="D73" t="s">
-        <v>41</v>
-      </c>
-      <c r="E73" t="s">
-        <v>41</v>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
       </c>
       <c r="F73">
         <v>0.1605</v>
       </c>
-      <c r="G73" t="s">
-        <v>41</v>
-      </c>
-      <c r="H73" t="s">
-        <v>41</v>
-      </c>
-      <c r="I73" t="s">
-        <v>41</v>
-      </c>
-      <c r="J73" t="s">
-        <v>41</v>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
       </c>
       <c r="K73">
         <v>1.6225000000000001</v>
@@ -4224,22 +4222,22 @@
       <c r="L73">
         <v>0.6865</v>
       </c>
-      <c r="M73" t="s">
-        <v>41</v>
-      </c>
-      <c r="N73" t="s">
-        <v>41</v>
-      </c>
-      <c r="O73" t="s">
-        <v>41</v>
-      </c>
-      <c r="P73" t="s">
-        <v>41</v>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B74">
         <v>1.8318000000000001</v>
@@ -4289,22 +4287,22 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" t="s">
-        <v>41</v>
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
       </c>
       <c r="C75">
         <v>45.405200000000001</v>
       </c>
-      <c r="D75" t="s">
-        <v>41</v>
+      <c r="D75">
+        <v>0</v>
       </c>
       <c r="E75">
         <v>13.4902</v>
       </c>
-      <c r="F75" t="s">
-        <v>41</v>
+      <c r="F75">
+        <v>0</v>
       </c>
       <c r="G75">
         <v>3.4445999999999999</v>
@@ -4312,17 +4310,17 @@
       <c r="H75">
         <v>2.2033</v>
       </c>
-      <c r="I75" t="s">
-        <v>41</v>
-      </c>
-      <c r="J75" t="s">
-        <v>41</v>
-      </c>
-      <c r="K75" t="s">
-        <v>41</v>
-      </c>
-      <c r="L75" t="s">
-        <v>41</v>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
       </c>
       <c r="M75">
         <v>1.2497</v>
@@ -4330,8 +4328,8 @@
       <c r="N75">
         <v>3.9365000000000001</v>
       </c>
-      <c r="O75" t="s">
-        <v>41</v>
+      <c r="O75">
+        <v>0</v>
       </c>
       <c r="P75">
         <v>0.72770000000000001</v>
@@ -4339,10 +4337,10 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B76" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
       </c>
       <c r="C76">
         <v>24.011700000000001</v>
@@ -4353,8 +4351,8 @@
       <c r="E76">
         <v>11.7294</v>
       </c>
-      <c r="F76" t="s">
-        <v>41</v>
+      <c r="F76">
+        <v>0</v>
       </c>
       <c r="G76">
         <v>2.5863</v>
@@ -4365,14 +4363,14 @@
       <c r="I76">
         <v>0.60599999999999998</v>
       </c>
-      <c r="J76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K76" t="s">
-        <v>41</v>
-      </c>
-      <c r="L76" t="s">
-        <v>41</v>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
       </c>
       <c r="M76">
         <v>0.85460000000000003</v>
@@ -4380,19 +4378,19 @@
       <c r="N76">
         <v>2.2378</v>
       </c>
-      <c r="O76" t="s">
-        <v>41</v>
-      </c>
-      <c r="P76" t="s">
-        <v>41</v>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" t="s">
-        <v>41</v>
+        <v>74</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
       </c>
       <c r="C77">
         <v>56.910800000000002</v>
@@ -4403,8 +4401,8 @@
       <c r="E77">
         <v>43.368899999999996</v>
       </c>
-      <c r="F77" t="s">
-        <v>41</v>
+      <c r="F77">
+        <v>0</v>
       </c>
       <c r="G77">
         <v>13.1021</v>
@@ -4415,67 +4413,67 @@
       <c r="I77">
         <v>2.4649999999999999</v>
       </c>
-      <c r="J77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K77" t="s">
-        <v>41</v>
-      </c>
-      <c r="L77" t="s">
-        <v>41</v>
-      </c>
-      <c r="M77" t="s">
-        <v>41</v>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
       </c>
       <c r="N77">
         <v>1.8315999999999999</v>
       </c>
-      <c r="O77" t="s">
-        <v>41</v>
-      </c>
-      <c r="P77" t="s">
-        <v>41</v>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B78">
         <v>2.7222</v>
       </c>
-      <c r="C78" t="s">
-        <v>41</v>
-      </c>
-      <c r="D78" t="s">
-        <v>41</v>
-      </c>
-      <c r="E78" t="s">
-        <v>41</v>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
       </c>
       <c r="F78">
         <v>6.8864000000000001</v>
       </c>
-      <c r="G78" t="s">
-        <v>41</v>
-      </c>
-      <c r="H78" t="s">
-        <v>41</v>
-      </c>
-      <c r="I78" t="s">
-        <v>41</v>
-      </c>
-      <c r="J78" t="s">
-        <v>41</v>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
       </c>
       <c r="K78">
         <v>8.9832999999999998</v>
       </c>
-      <c r="L78" t="s">
-        <v>41</v>
-      </c>
-      <c r="M78" t="s">
-        <v>41</v>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
       </c>
       <c r="N78">
         <v>36.158700000000003</v>
@@ -4489,52 +4487,52 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B79" t="s">
-        <v>41</v>
-      </c>
-      <c r="C79" t="s">
-        <v>41</v>
-      </c>
-      <c r="D79" t="s">
-        <v>41</v>
-      </c>
-      <c r="E79" t="s">
-        <v>41</v>
-      </c>
-      <c r="F79" t="s">
-        <v>41</v>
-      </c>
-      <c r="G79" t="s">
-        <v>41</v>
-      </c>
-      <c r="H79" t="s">
-        <v>41</v>
-      </c>
-      <c r="I79" t="s">
-        <v>41</v>
-      </c>
-      <c r="J79" t="s">
-        <v>41</v>
-      </c>
-      <c r="K79" t="s">
-        <v>41</v>
-      </c>
-      <c r="L79" t="s">
-        <v>41</v>
-      </c>
-      <c r="M79" t="s">
-        <v>41</v>
-      </c>
-      <c r="N79" t="s">
-        <v>41</v>
-      </c>
-      <c r="O79" t="s">
-        <v>41</v>
-      </c>
-      <c r="P79" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
